--- a/data analysis/Exercise done/5_Distributions/Software Project Plan.xlsx
+++ b/data analysis/Exercise done/5_Distributions/Software Project Plan.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmullen/Data/Classes/IDA8_29_2016/Distributions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheagraw/Google Drive/training/Data Analysis/Exercise done/5_Distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96F56D-4513-C84D-8EC1-55D5FE5C3F2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2000" windowWidth="27360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="1660" windowWidth="26820" windowHeight="13580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2:$B$11</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task Designation</t>
   </si>
@@ -67,12 +76,21 @@
   <si>
     <t>Actual Project Hours</t>
   </si>
+  <si>
+    <t>Hours as percent</t>
+  </si>
+  <si>
+    <t>Cummulative</t>
+  </si>
+  <si>
+    <t>Task Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,9 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,8 +150,978 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Debug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mock implementation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test Implementation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Project Design</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Requirements Gathering</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Test Environment Setup</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Architecture Assessment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Production Enviroment Creation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Update meetings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3671-BF4E-B326-EB75413D5A71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1226894831"/>
+        <c:axId val="1226896511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1226894831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226896511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1226896511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226894831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C43B753-8F54-804C-B232-C712D5998C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,118 +1386,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>550</v>
+      </c>
+      <c r="C2" s="2">
+        <f>$B2/B$14</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUM($C$2:C2)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>433</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="0">$B3/B$14</f>
+        <v>0.36083333333333334</v>
+      </c>
+      <c r="D3" s="5">
+        <f>SUM($C$2:C3)</f>
+        <v>0.8191666666666666</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>76</v>
       </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUM($C$2:C4)</f>
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <f>SUM($C$2:C5)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>31</v>
       </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333333E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <f>SUM($C$2:C6)</f>
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <f>SUM($C$2:C7)</f>
+        <v>0.96333333333333326</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>433</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM($C$2:C8)</f>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <f>SUM($C$2:C9)</f>
+        <v>0.98749999999999993</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <f>SUM($C$2:C10)</f>
+        <v>0.99416666666666664</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8333333333333336E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <f>SUM($C$2:C11)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <f>SUM(B2:B11)</f>
         <v>1200</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B11">
-    <sortCondition ref="A2:A11"/>
+    <sortCondition descending="1" ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>